--- a/berkas/formatUploadData.xlsx
+++ b/berkas/formatUploadData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\websiteDesaDigitalUpdate\berkas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EA9482-8759-4060-8393-A5CACEA65399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D29930-3E50-4942-87CF-69C2D891867D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="15375" windowHeight="7785" xr2:uid="{0C4F7CAA-9527-490E-8B41-B6A9192A281E}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{0C4F7CAA-9527-490E-8B41-B6A9192A281E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Laki - Laki</t>
   </si>
@@ -33,15 +33,6 @@
     <t>Islam</t>
   </si>
   <si>
-    <t>Cinta Rakyat</t>
-  </si>
-  <si>
-    <t>Dusun X</t>
-  </si>
-  <si>
-    <t>Percut Sei Tuan</t>
-  </si>
-  <si>
     <t>SLTA/SEDERAJAT</t>
   </si>
   <si>
@@ -64,6 +55,18 @@
   </si>
   <si>
     <t>Medan</t>
+  </si>
+  <si>
+    <t>Ini alamat</t>
+  </si>
+  <si>
+    <t>TIDAK SEDANG SEKOLAH</t>
+  </si>
+  <si>
+    <t>DUSUN I</t>
+  </si>
+  <si>
+    <t>1995-12-20</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC5C290-E76C-4F60-B19A-B84E26F997A0}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,25 +433,26 @@
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>1234567890</v>
@@ -460,10 +464,10 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1">
-        <v>35053</v>
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G1">
         <v>28</v>
@@ -472,49 +476,46 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1">
+      <c r="T1">
         <v>0</v>
       </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" t="s">
-        <v>10</v>
+      <c r="U1">
+        <v>4000000</v>
       </c>
       <c r="V1">
-        <v>0</v>
-      </c>
-      <c r="W1">
-        <v>4000000</v>
+        <v>82275849670</v>
       </c>
     </row>
   </sheetData>
